--- a/docs/reports/daily_reports.xlsx
+++ b/docs/reports/daily_reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\phuongtran\code\training\PanasonicRDTraining-backend-java\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50295876-217E-4857-9CD9-3DB1DBD783F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13550587-A05A-4903-91D2-F408FEC7D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -72,6 +72,20 @@
   </si>
   <si>
     <t>8h</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Learn Java
+ - Learn Spring Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Learn Java
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Continue leaning Spring</t>
   </si>
 </sst>
 </file>
@@ -103,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +140,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -141,6 +179,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,26 +522,47 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>